--- a/biology/Zoologie/Âne_bourbonnais/Âne_bourbonnais.xlsx
+++ b/biology/Zoologie/Âne_bourbonnais/Âne_bourbonnais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%82ne_bourbonnais</t>
+          <t>Âne_bourbonnais</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'âne bourbonnais est une race d'ânes originaire de la région Auvergne, né dans le département français de l'Allier, anciennement province du Bourbonnais. C'est un âne de taille moyenne qui présente une robe baie ou chocolat avec une bande cruciale, dite « croix de Saint-André ». Cette race, utilisée autrefois pour les travaux agricoles, le halage et le transport de loisirs a de nos jours trouvé une place dans l'agriculture, les loisirs, le tourisme et la médiation animale. La race a été reconnue par le ministère français de l'Agriculture en octobre 2002. L'Association Française de l'âne bourbonnais[1] est l'association de la race gérant le livre généalogique et assurant sa promotion.
+L'âne bourbonnais est une race d'ânes originaire de la région Auvergne, né dans le département français de l'Allier, anciennement province du Bourbonnais. C'est un âne de taille moyenne qui présente une robe baie ou chocolat avec une bande cruciale, dite « croix de Saint-André ». Cette race, utilisée autrefois pour les travaux agricoles, le halage et le transport de loisirs a de nos jours trouvé une place dans l'agriculture, les loisirs, le tourisme et la médiation animale. La race a été reconnue par le ministère français de l'Agriculture en octobre 2002. L'Association Française de l'âne bourbonnais est l'association de la race gérant le livre généalogique et assurant sa promotion.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%82ne_bourbonnais</t>
+          <t>Âne_bourbonnais</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Avant la mécanisation de l'agriculture, l'âne est compagnon de travail dans la vie agricole. Compagnon du métayer au XIXe siècle, l'âne bourbonnais est utilisé pour les travaux agricoles et pour les déplacements. Mais il sert aussi d'autres professions qui l'utilisent pour le transport des marchandises ou le halage. L'âne bourbonnais est également utilisé pour le ramassage des ordures ménagères.
-Dès le début du XXe siècle, dans les stations thermales du Massif Central - Vichy[2], La Bourboule, Le Mont Dore - l'âne bourbonnais promène les curistes dans les montagnes ou le long des quais. Il est également employé pour haler les péniches[3].
+Dès le début du XXe siècle, dans les stations thermales du Massif Central - Vichy, La Bourboule, Le Mont Dore - l'âne bourbonnais promène les curistes dans les montagnes ou le long des quais. Il est également employé pour haler les péniches.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%82ne_bourbonnais</t>
+          <t>Âne_bourbonnais</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C’est un âne qui mesure entre 1,25 m à 1,35 m au garrot pour les mâles et 1,18 m à 1,28 m pour les femelles[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est un âne qui mesure entre 1,25 m à 1,35 m au garrot pour les mâles et 1,18 m à 1,28 m pour les femelles.
 Sa tête se présente avec un chanfrein rectiligne, les arcades saillantes, le contour des yeux clair et les paupières soulignées.
 Le front est droit et le bout du nez est gris clair. Le liseré roux est apprécié.
 Ses oreilles sont longues et droites attachées haut.
@@ -556,7 +572,7 @@
 Le sabot est large et le talon est marqué.
 Le ventre est gris à gris clair.
 Son encolure est forte, implantée à mi-corps et bien dirigée.
-Sa robe est brune à bai brun, la nuance chocolat est appréciée. Il possède une bande cruciale sur le dos dite « croix de Saint-André »[5].
+Sa robe est brune à bai brun, la nuance chocolat est appréciée. Il possède une bande cruciale sur le dos dite « croix de Saint-André ».
 </t>
         </is>
       </c>
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%82ne_bourbonnais</t>
+          <t>Âne_bourbonnais</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son utilisation actuelle en fait un âne de compagnie, de randonnée, d'attelage ou de travail (maraîchage, viticulture, ramassage des ordures).  
 Il est également utilisé en production de lait d'ânesse pour la fabrication de cosmétiques. Son caractère doux le recommande pour l'asinothérapie.
@@ -599,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%82ne_bourbonnais</t>
+          <t>Âne_bourbonnais</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,11 +635,13 @@
           <t>Diffusion de l'élevage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Association de l'âne bourbonnais a été créée le 27 février 1994 dans le but d'aboutir à un stud-book d'après les documents répertoriés sur le sujet et surtout de faire officialiser la race auprès des Haras nationaux. Ceci est chose faite depuis le 25 octobre 2002. L'association a pour objectifs de promouvoir l'âne bourbonnais, assurer le suivi génétique, proposer appui et services aux éleveurs et leur proposer un programme d’élevage[6].
-En 2014, l'effectif national de la race s'élève à 200 individus. On dénombre 8 éleveurs d'ânes bourbonnais en activité en France en 2013. Cette même année, on recense seulement 9 naissances d'ânes bourbonnais. On compte également 7 baudets en activité et 20 ânesses saillies[5].
-En 2023, il est considéré par l'Institut national de recherche pour l'agriculture, l'alimentation et l'environnement (INRAE) comme une race asine française menacée d'extinction[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Association de l'âne bourbonnais a été créée le 27 février 1994 dans le but d'aboutir à un stud-book d'après les documents répertoriés sur le sujet et surtout de faire officialiser la race auprès des Haras nationaux. Ceci est chose faite depuis le 25 octobre 2002. L'association a pour objectifs de promouvoir l'âne bourbonnais, assurer le suivi génétique, proposer appui et services aux éleveurs et leur proposer un programme d’élevage.
+En 2014, l'effectif national de la race s'élève à 200 individus. On dénombre 8 éleveurs d'ânes bourbonnais en activité en France en 2013. Cette même année, on recense seulement 9 naissances d'ânes bourbonnais. On compte également 7 baudets en activité et 20 ânesses saillies.
+En 2023, il est considéré par l'Institut national de recherche pour l'agriculture, l'alimentation et l'environnement (INRAE) comme une race asine française menacée d'extinction.
 </t>
         </is>
       </c>
@@ -632,7 +652,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%82ne_bourbonnais</t>
+          <t>Âne_bourbonnais</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -650,9 +670,11 @@
           <t>Foire aux ânes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une foire aux ânes a lieu chaque année, le dernier dimanche d'août, en Bourbonnais, à Braize, près de la forêt de Tronçais[8].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une foire aux ânes a lieu chaque année, le dernier dimanche d'août, en Bourbonnais, à Braize, près de la forêt de Tronçais.
 </t>
         </is>
       </c>
